--- a/pwbi/Modello Architettonico/Excell modello architettonico.xlsx
+++ b/pwbi/Modello Architettonico/Excell modello architettonico.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Architettonico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E2CB2-C826-48A0-AA31-AE8B607E2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED91930-9150-429C-818C-C4931DAD9100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CAD7AE57-2EC7-4EAB-917F-2153D7DF2FBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAD7AE57-2EC7-4EAB-917F-2153D7DF2FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="3" r:id="rId1"/>
     <sheet name="DR" sheetId="4" r:id="rId2"/>
+    <sheet name="IP spalle" sheetId="5" r:id="rId3"/>
+    <sheet name="DR spalle" sheetId="6" r:id="rId4"/>
+    <sheet name="IP pavim" sheetId="7" r:id="rId5"/>
+    <sheet name="DR pavim" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="36">
   <si>
     <t>IP (%)</t>
   </si>
@@ -123,9 +127,6 @@
     <t>Traverso 5</t>
   </si>
   <si>
-    <t>Spalla sinistra</t>
-  </si>
-  <si>
     <t xml:space="preserve">DR </t>
   </si>
   <si>
@@ -141,13 +142,16 @@
     <t>Travers0 1</t>
   </si>
   <si>
-    <t>Spalla destra</t>
+    <t>Spalladx</t>
   </si>
   <si>
-    <t>pavimento 1</t>
+    <t>Spallasx</t>
   </si>
   <si>
-    <t>pavimento 2</t>
+    <t>Pav1</t>
+  </si>
+  <si>
+    <t>Pav2</t>
   </si>
 </sst>
 </file>
@@ -254,6 +258,7 @@
       <sheetName val="FINALTABLE 2"/>
       <sheetName val="finaltable strutt"/>
       <sheetName val="Foglio1 (3)"/>
+      <sheetName val="risultati ESR"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -503,6 +508,7 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -805,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CBFF49-EA8E-42E5-A178-860E4B2BA7E9}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:A156"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,13 +827,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2264,7 +2270,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" s="1">
         <f>'[1]curve di decadimento (IP) '!O68</f>
@@ -2277,7 +2283,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B113" s="1">
         <f>'[1]curve di decadimento (IP) '!O69</f>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B114" s="1">
         <f>'[1]curve di decadimento (IP) '!O70</f>
@@ -2303,7 +2309,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B115" s="1">
         <f>'[1]curve di decadimento (IP) '!O71</f>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B116" s="1">
         <f>'[1]curve di decadimento (IP) '!O72</f>
@@ -2577,250 +2583,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B137" s="1">
-        <f>'[1]curve di decadimento (IP) '!C67</f>
-        <v>80</v>
-      </c>
-      <c r="C137">
-        <f>'[1]curve di decadimento (IP) '!P68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B138" s="1">
-        <f>'[1]curve di decadimento (IP) '!C68</f>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="C138">
-        <f>'[1]curve di decadimento (IP) '!P69</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B139" s="1">
-        <f>'[1]curve di decadimento (IP) '!C69</f>
-        <v>70.199999999999989</v>
-      </c>
-      <c r="C139">
-        <f>'[1]curve di decadimento (IP) '!P70</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B140" s="1">
-        <f>'[1]curve di decadimento (IP) '!C70</f>
-        <v>62.857142857142861</v>
-      </c>
-      <c r="C140">
-        <f>'[1]curve di decadimento (IP) '!P71</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141" s="1">
-        <f>'[1]curve di decadimento (IP) '!C71</f>
-        <v>54</v>
-      </c>
-      <c r="C141">
-        <f>'[1]curve di decadimento (IP) '!P72</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B142" s="1">
-        <f>'[1]curve di decadimento (IP) '!C67</f>
-        <v>80</v>
-      </c>
-      <c r="C142">
-        <f>'[1]curve di decadimento (IP) '!P68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B143" s="1">
-        <f>'[1]curve di decadimento (IP) '!C68</f>
-        <v>77.142857142857153</v>
-      </c>
-      <c r="C143">
-        <f>'[1]curve di decadimento (IP) '!P69</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B144" s="1">
-        <f>'[1]curve di decadimento (IP) '!C69</f>
-        <v>70.199999999999989</v>
-      </c>
-      <c r="C144">
-        <f>'[1]curve di decadimento (IP) '!P70</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B145" s="1">
-        <f>'[1]curve di decadimento (IP) '!C70</f>
-        <v>62.857142857142861</v>
-      </c>
-      <c r="C145">
-        <f>'[1]curve di decadimento (IP) '!P71</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="1">
-        <f>'[1]curve di decadimento (IP) '!C71</f>
-        <v>54</v>
-      </c>
-      <c r="C146">
-        <f>'[1]curve di decadimento (IP) '!P72</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="1">
-        <f>'[1]curve di decadimento (IP) '!H86</f>
-        <v>87.714285714285708</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="1">
-        <f>'[1]curve di decadimento (IP) '!H87</f>
-        <v>82</v>
-      </c>
-      <c r="C148">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="1">
-        <f>'[1]curve di decadimento (IP) '!H88</f>
-        <v>73.350000000000009</v>
-      </c>
-      <c r="C149">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="1">
-        <f>'[1]curve di decadimento (IP) '!H89</f>
-        <v>59</v>
-      </c>
-      <c r="C150">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="1">
-        <f>'[1]curve di decadimento (IP) '!H90</f>
-        <v>49</v>
-      </c>
-      <c r="C151">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B152" s="1">
-        <v>87.714285714285708</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153" s="1">
-        <v>82</v>
-      </c>
-      <c r="C153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154" s="1">
-        <v>73.350000000000009</v>
-      </c>
-      <c r="C154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155" s="1">
-        <v>59</v>
-      </c>
-      <c r="C155">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" s="1">
-        <v>49</v>
-      </c>
-      <c r="C156">
-        <v>20</v>
-      </c>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2833,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C36666F-1508-419F-9899-87663AF3101F}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152:C156"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2851,7 +2615,7 @@
         <v xml:space="preserve"> ID BEAM</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="str">
         <f>IP!C1</f>
@@ -4613,248 +4377,602 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="str">
-        <f>IP!A137</f>
-        <v>Spalla destra</v>
-      </c>
-      <c r="B137" s="5">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52303C71-4E42-4CF5-A322-A607D61CE4ED}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <f>'[1]curve di decadimento (IP) '!C67</f>
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <f>'[1]curve di decadimento (IP) '!P68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'[1]curve di decadimento (IP) '!C68</f>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="C3">
+        <f>'[1]curve di decadimento (IP) '!P69</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'[1]curve di decadimento (IP) '!C69</f>
+        <v>70.199999999999989</v>
+      </c>
+      <c r="C4">
+        <f>'[1]curve di decadimento (IP) '!P70</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'[1]curve di decadimento (IP) '!C70</f>
+        <v>62.857142857142861</v>
+      </c>
+      <c r="C5">
+        <f>'[1]curve di decadimento (IP) '!P71</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'[1]curve di decadimento (IP) '!C71</f>
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <f>'[1]curve di decadimento (IP) '!P72</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'[1]curve di decadimento (IP) '!C67</f>
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <f>'[1]curve di decadimento (IP) '!P68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'[1]curve di decadimento (IP) '!C68</f>
+        <v>77.142857142857153</v>
+      </c>
+      <c r="C8">
+        <f>'[1]curve di decadimento (IP) '!P69</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <f>'[1]curve di decadimento (IP) '!C69</f>
+        <v>70.199999999999989</v>
+      </c>
+      <c r="C9">
+        <f>'[1]curve di decadimento (IP) '!P70</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <f>'[1]curve di decadimento (IP) '!C70</f>
+        <v>62.857142857142861</v>
+      </c>
+      <c r="C10">
+        <f>'[1]curve di decadimento (IP) '!P71</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <f>'[1]curve di decadimento (IP) '!C71</f>
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <f>'[1]curve di decadimento (IP) '!P72</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B231B4-8518-45A5-A1C0-A82528E27D3F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str">
+        <f>IP!A1</f>
+        <v xml:space="preserve"> ID BEAM</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="str">
+        <f>IP!C1</f>
+        <v>TIME</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="str">
+        <f>'IP spalle'!A2</f>
+        <v>Spalladx</v>
+      </c>
+      <c r="B2" s="5">
         <v>2.8</v>
       </c>
-      <c r="C137" s="5">
-        <f>IP!C137</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="str">
-        <f>IP!A138</f>
-        <v>Spalla destra</v>
-      </c>
-      <c r="B138" s="5">
+      <c r="C2" s="5">
+        <f>'IP spalle'!C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="str">
+        <f>'IP spalle'!A3</f>
+        <v>Spalladx</v>
+      </c>
+      <c r="B3" s="5">
         <v>3.8</v>
       </c>
-      <c r="C138" s="5">
-        <f>IP!C138</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="str">
-        <f>IP!A139</f>
-        <v>Spalla destra</v>
-      </c>
-      <c r="B139" s="5">
+      <c r="C3" s="5">
+        <f>'IP spalle'!C3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
+        <f>'IP spalle'!A4</f>
+        <v>Spalladx</v>
+      </c>
+      <c r="B4" s="5">
         <v>4.2</v>
       </c>
-      <c r="C139" s="5">
-        <f>IP!C139</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="str">
-        <f>IP!A140</f>
-        <v>Spalla destra</v>
-      </c>
-      <c r="B140" s="5">
+      <c r="C4" s="5">
+        <f>'IP spalle'!C4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="str">
+        <f>'IP spalle'!A5</f>
+        <v>Spalladx</v>
+      </c>
+      <c r="B5" s="5">
         <v>5.9</v>
       </c>
-      <c r="C140" s="5">
-        <f>IP!C140</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="str">
-        <f>IP!A141</f>
-        <v>Spalla destra</v>
-      </c>
-      <c r="B141" s="5">
+      <c r="C5" s="5">
+        <f>'IP spalle'!C5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="str">
+        <f>'IP spalle'!A6</f>
+        <v>Spalladx</v>
+      </c>
+      <c r="B6" s="5">
         <v>6.2</v>
       </c>
-      <c r="C141" s="5">
-        <f>IP!C141</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="str">
-        <f>IP!A142</f>
-        <v>Spalla sinistra</v>
-      </c>
-      <c r="B142" s="5">
-        <v>2.8</v>
-      </c>
-      <c r="C142" s="5">
-        <f>IP!C142</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="str">
-        <f>IP!A143</f>
-        <v>Spalla sinistra</v>
-      </c>
-      <c r="B143" s="5">
+      <c r="C6" s="5">
+        <f>'IP spalle'!C6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="str">
+        <f>'IP spalle'!A7</f>
+        <v>Spallasx</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C7" s="5">
+        <f>'IP spalle'!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="str">
+        <f>'IP spalle'!A8</f>
+        <v>Spallasx</v>
+      </c>
+      <c r="B8" s="5">
         <v>3.8</v>
       </c>
-      <c r="C143" s="5">
-        <f>IP!C143</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="str">
-        <f>IP!A144</f>
-        <v>Spalla sinistra</v>
-      </c>
-      <c r="B144" s="5">
-        <v>4.2</v>
-      </c>
-      <c r="C144" s="5">
-        <f>IP!C144</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="str">
-        <f>IP!A145</f>
-        <v>Spalla sinistra</v>
-      </c>
-      <c r="B145" s="5">
+      <c r="C8" s="5">
+        <f>'IP spalle'!C8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="str">
+        <f>'IP spalle'!A9</f>
+        <v>Spallasx</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <f>'IP spalle'!C9</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="str">
+        <f>'IP spalle'!A10</f>
+        <v>Spallasx</v>
+      </c>
+      <c r="B10" s="5">
         <v>5.9</v>
       </c>
-      <c r="C145" s="5">
-        <f>IP!C145</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="str">
-        <f>IP!A146</f>
-        <v>Spalla sinistra</v>
-      </c>
-      <c r="B146" s="5">
+      <c r="C10" s="5">
+        <f>'IP spalle'!C10</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="str">
+        <f>'IP spalle'!A11</f>
+        <v>Spallasx</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="C11" s="5">
+        <f>'IP spalle'!C11</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259DAEC-3D38-4C96-B0E7-0A0C6A93BEFE}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <f>'[1]curve di decadimento (IP) '!H86</f>
+        <v>87.714285714285708</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
+        <f>'[1]curve di decadimento (IP) '!H87</f>
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <f>'[1]curve di decadimento (IP) '!H88</f>
+        <v>73.350000000000009</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'[1]curve di decadimento (IP) '!H89</f>
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'[1]curve di decadimento (IP) '!H90</f>
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1">
+        <v>87.714285714285708</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>82</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>73.350000000000009</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05299147-3356-402F-9962-7C87A617B420}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="str">
+        <f>IP!A1</f>
+        <v xml:space="preserve"> ID BEAM</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="str">
+        <f>IP!C1</f>
+        <v>TIME</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.58</v>
+      </c>
+      <c r="C2" s="5">
+        <f>'IP pavim'!C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.74</v>
+      </c>
+      <c r="C3" s="5">
+        <f>'IP pavim'!C3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5">
         <v>6.2</v>
       </c>
-      <c r="C146" s="5">
-        <f>IP!C146</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="4" t="s">
+      <c r="C4" s="5">
+        <f>'IP pavim'!C4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'IP pavim'!C5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="C6" s="5">
+        <f>'IP pavim'!C6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
         <v>2.58</v>
       </c>
-      <c r="C147" s="5">
-        <f>IP!C147</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="5">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
         <v>3.74</v>
       </c>
-      <c r="C148" s="5">
-        <f>IP!C148</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="5">
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
         <v>6.2</v>
       </c>
-      <c r="C149" s="5">
-        <f>IP!C149</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="5">
+      <c r="C9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C150" s="5">
-        <f>IP!C150</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="5">
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
         <v>10.8</v>
       </c>
-      <c r="C151" s="5">
-        <f>IP!C151</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B152">
-        <v>2.58</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153">
-        <v>3.74</v>
-      </c>
-      <c r="C153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154">
-        <v>6.2</v>
-      </c>
-      <c r="C154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155">
-        <v>9</v>
-      </c>
-      <c r="C155">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156">
-        <v>10.8</v>
-      </c>
-      <c r="C156">
+      <c r="C11">
         <v>20</v>
       </c>
     </row>

--- a/pwbi/Modello Architettonico/Excell modello architettonico.xlsx
+++ b/pwbi/Modello Architettonico/Excell modello architettonico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Architettonico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED91930-9150-429C-818C-C4931DAD9100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F0F8E-18BC-4EBB-A1FE-9F1B35563DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CAD7AE57-2EC7-4EAB-917F-2153D7DF2FBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CAD7AE57-2EC7-4EAB-917F-2153D7DF2FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="3" r:id="rId1"/>
@@ -444,9 +444,6 @@
           </cell>
         </row>
         <row r="70">
-          <cell r="C70">
-            <v>62.857142857142861</v>
-          </cell>
           <cell r="O70">
             <v>71.400000000000006</v>
           </cell>
@@ -455,9 +452,6 @@
           </cell>
         </row>
         <row r="71">
-          <cell r="C71">
-            <v>54</v>
-          </cell>
           <cell r="O71">
             <v>66.150000000000006</v>
           </cell>
@@ -4387,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52303C71-4E42-4CF5-A322-A607D61CE4ED}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4422,8 +4416,8 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <f>'[1]curve di decadimento (IP) '!C68</f>
-        <v>77.142857142857153</v>
+        <f>75</f>
+        <v>75</v>
       </c>
       <c r="C3">
         <f>'[1]curve di decadimento (IP) '!P69</f>
@@ -4448,8 +4442,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <f>'[1]curve di decadimento (IP) '!C70</f>
-        <v>62.857142857142861</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <f>'[1]curve di decadimento (IP) '!P71</f>
@@ -4461,8 +4454,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <f>'[1]curve di decadimento (IP) '!C71</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <f>'[1]curve di decadimento (IP) '!P72</f>
@@ -4500,8 +4492,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <f>'[1]curve di decadimento (IP) '!C69</f>
-        <v>70.199999999999989</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <f>'[1]curve di decadimento (IP) '!P70</f>
@@ -4513,8 +4504,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <f>'[1]curve di decadimento (IP) '!C70</f>
-        <v>62.857142857142861</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <f>'[1]curve di decadimento (IP) '!P71</f>
@@ -4526,8 +4516,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1">
-        <f>'[1]curve di decadimento (IP) '!C71</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <f>'[1]curve di decadimento (IP) '!P72</f>
@@ -4543,7 +4532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B231B4-8518-45A5-A1C0-A82528E27D3F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/pwbi/Modello Architettonico/Excell modello architettonico.xlsx
+++ b/pwbi/Modello Architettonico/Excell modello architettonico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\TESI\website\Web-Thesis\pwbi\Modello Architettonico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F0F8E-18BC-4EBB-A1FE-9F1B35563DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE376D6-42EA-4B59-B1A6-46CCB39ECB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CAD7AE57-2EC7-4EAB-917F-2153D7DF2FBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAD7AE57-2EC7-4EAB-917F-2153D7DF2FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="3" r:id="rId1"/>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CBFF49-EA8E-42E5-A178-860E4B2BA7E9}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,8 +1045,8 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <f>'[1]curve di decadimento (IP) '!L17</f>
-        <v>94.5</v>
+        <f>93</f>
+        <v>93</v>
       </c>
       <c r="C18" s="1">
         <f>'[1]curve di decadimento (IP) '!M10</f>
@@ -1058,8 +1058,8 @@
         <v>4</v>
       </c>
       <c r="B19" s="1">
-        <f>'[1]curve di decadimento (IP) '!L18</f>
-        <v>85</v>
+        <f>81</f>
+        <v>81</v>
       </c>
       <c r="C19" s="1">
         <f>'[1]curve di decadimento (IP) '!M11</f>
@@ -1084,8 +1084,8 @@
         <v>4</v>
       </c>
       <c r="B21" s="1">
-        <f>'[1]curve di decadimento (IP) '!L20</f>
-        <v>68.75</v>
+        <f>66</f>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <f>'[1]curve di decadimento (IP) '!M13</f>
@@ -1110,8 +1110,8 @@
         <v>5</v>
       </c>
       <c r="B23" s="1">
-        <f>'[1]curve di decadimento (IP) '!L17</f>
-        <v>94.5</v>
+        <f>94.2</f>
+        <v>94.2</v>
       </c>
       <c r="C23" s="2">
         <f>'[1]curve di decadimento (IP) '!M10</f>
@@ -1123,8 +1123,8 @@
         <v>5</v>
       </c>
       <c r="B24" s="1">
-        <f>'[1]curve di decadimento (IP) '!L18</f>
-        <v>85</v>
+        <f>82</f>
+        <v>82</v>
       </c>
       <c r="C24" s="2">
         <f>'[1]curve di decadimento (IP) '!M11</f>
@@ -1149,8 +1149,8 @@
         <v>5</v>
       </c>
       <c r="B26" s="1">
-        <f>'[1]curve di decadimento (IP) '!L20</f>
-        <v>68.75</v>
+        <f>68</f>
+        <v>68</v>
       </c>
       <c r="C26" s="2">
         <f>'[1]curve di decadimento (IP) '!M13</f>
@@ -1955,8 +1955,8 @@
         <v>18</v>
       </c>
       <c r="B88" s="1">
-        <f>'[1]curve di decadimento (IP) '!L17</f>
-        <v>94.5</v>
+        <f>93</f>
+        <v>93</v>
       </c>
       <c r="C88" s="3">
         <f>'[1]curve di decadimento (IP) '!M24</f>
@@ -2007,8 +2007,8 @@
         <v>19</v>
       </c>
       <c r="B92" s="1">
-        <f>'[1]curve di decadimento (IP) '!L16</f>
-        <v>96</v>
+        <f>95</f>
+        <v>95</v>
       </c>
       <c r="C92" s="3">
         <f>'[1]curve di decadimento (IP) '!M23</f>
@@ -2020,8 +2020,8 @@
         <v>19</v>
       </c>
       <c r="B93" s="1">
-        <f>'[1]curve di decadimento (IP) '!L17</f>
-        <v>94.5</v>
+        <f>92</f>
+        <v>92</v>
       </c>
       <c r="C93" s="3">
         <f>'[1]curve di decadimento (IP) '!M24</f>
@@ -2085,8 +2085,8 @@
         <v>20</v>
       </c>
       <c r="B98" s="1">
-        <f>'[1]curve di decadimento (IP) '!L17</f>
-        <v>94.5</v>
+        <f>94</f>
+        <v>94</v>
       </c>
       <c r="C98" s="3">
         <f>'[1]curve di decadimento (IP) '!M24</f>
@@ -2593,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C36666F-1508-419F-9899-87663AF3101F}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2778,7 +2778,7 @@
         <v>T-3</v>
       </c>
       <c r="B14" s="5">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C14" s="5">
         <f>IP!C14</f>
@@ -2830,7 +2830,7 @@
         <v>T-4</v>
       </c>
       <c r="B18" s="5">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="C18" s="5">
         <f>IP!C18</f>
@@ -3818,7 +3818,7 @@
         <v>T-19</v>
       </c>
       <c r="B94" s="5">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C94" s="5">
         <f>IP!C94</f>
@@ -3883,7 +3883,7 @@
         <v>T-20</v>
       </c>
       <c r="B99" s="5">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C99" s="5">
         <f>IP!C99</f>
@@ -4078,7 +4078,7 @@
         <v>Traverso 1</v>
       </c>
       <c r="B114" s="5">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C114" s="5">
         <f>IP!C114</f>
@@ -4104,7 +4104,7 @@
         <v>Traverso 1</v>
       </c>
       <c r="B116" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C116" s="5">
         <f>IP!C116</f>
@@ -4312,7 +4312,7 @@
         <v>Traverso 5</v>
       </c>
       <c r="B132" s="5">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C132" s="5">
         <f>IP!C132</f>
@@ -4338,7 +4338,7 @@
         <v>Traverso 5</v>
       </c>
       <c r="B134" s="5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="C134" s="5">
         <f>IP!C134</f>
@@ -4364,7 +4364,7 @@
         <v>Traverso 5</v>
       </c>
       <c r="B136" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C136" s="5">
         <f>IP!C136</f>
@@ -4381,7 +4381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52303C71-4E42-4CF5-A322-A607D61CE4ED}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
